--- a/AAII_Financials/Yearly/SRNW_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SRNW_YR_FIN.xlsx
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
